--- a/tests/test1/d30/ЛМ, 0.0.xlsx
+++ b/tests/test1/d30/ЛМ, 0.0.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.008343400000001111</v>
+        <v>0.006765500000000202</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.006700999999999624</v>
+        <v>0.005367499999998415</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.005576499999996543</v>
+        <v>0.002735199999996496</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.006612999999994429</v>
+        <v>0.004631699999997352</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.004564999999999486</v>
+        <v>0.003725600000002771</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004898400000001857</v>
+        <v>0.006569399999996506</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.003804800000004604</v>
+        <v>0.003411599999999737</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.01163249999999749</v>
+        <v>0.001953100000001484</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.00576189999999599</v>
+        <v>0.009550300000000789</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.004272100000001444</v>
+        <v>0.008816800000005287</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.01002950000000169</v>
+        <v>0.00659339999999986</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.008935499999999763</v>
+        <v>0.004433699999999874</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.004784200000003125</v>
+        <v>0.002473199999997178</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.003417300000002399</v>
+        <v>0.003800699999999324</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.005300900000001718</v>
+        <v>0.006319999999995218</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.004555899999999724</v>
+        <v>0.004758999999999958</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002157300000000362</v>
+        <v>0.005254299999997158</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.004434700000004455</v>
+        <v>0.002211500000001365</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.004348700000001315</v>
+        <v>0.002170899999995868</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.005389299999997377</v>
+        <v>0.001868300000005263</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.009469500000001574</v>
+        <v>0.003170899999993537</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002058900000001529</v>
+        <v>0.001806899999998279</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.004578800000004435</v>
+        <v>0.001726699999998971</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.01000930000000011</v>
+        <v>0.007023900000000083</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.006130200000001196</v>
+        <v>0.00194309999999831</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003171799999996949</v>
+        <v>0.002299700000001792</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002395499999998663</v>
+        <v>0.002390599999998244</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002610199999999452</v>
+        <v>0.002473300000005452</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002353300000002889</v>
+        <v>0.002234999999998877</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002244300000000976</v>
+        <v>0.003958999999994717</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002610500000002958</v>
+        <v>0.002173100000000261</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002648100000001818</v>
+        <v>0.004166400000002568</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002947100000000091</v>
+        <v>0.002035700000000418</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002088499999999271</v>
+        <v>0.001926300000000936</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002689500000002454</v>
+        <v>0.002450600000003078</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002047700000005648</v>
+        <v>0.001982900000001564</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003219000000001415</v>
+        <v>0.00244400000000411</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002090199999997822</v>
+        <v>0.00194450000000046</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003090700000001334</v>
+        <v>0.004057000000003086</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002678199999998299</v>
+        <v>0.002614199999996458</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002089899999994316</v>
+        <v>0.001960099999998022</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002197799999997585</v>
+        <v>0.002007599999998888</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002618399999995802</v>
+        <v>0.002620600000000195</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001868299999998158</v>
+        <v>0.001810200000001316</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002120599999997808</v>
+        <v>0.001961800000003677</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002185499999995955</v>
+        <v>0.00245970000000284</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002377400000000307</v>
+        <v>0.00221899999999664</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001845299999999384</v>
+        <v>0.001741299999999057</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001913600000001736</v>
+        <v>0.001787200000002542</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002202599999996835</v>
+        <v>0.001966100000004189</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002240799999995602</v>
+        <v>0.002316299999996829</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002321899999998323</v>
+        <v>0.002099399999998752</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002072799999993435</v>
+        <v>0.001963099999997553</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.005237199999996278</v>
+        <v>0.002304999999999779</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.004556999999998368</v>
+        <v>0.002191499999995017</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002460700000000315</v>
+        <v>0.003085399999996241</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002490399999999227</v>
+        <v>0.001747500000000457</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003487599999999702</v>
+        <v>0.0017770999999982</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00470510000000246</v>
+        <v>0.002263499999997975</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.00628329999999977</v>
+        <v>0.002209600000000478</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002465200000003165</v>
+        <v>0.003817300000001467</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.00252749999999935</v>
+        <v>0.00201020000000085</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001884099999998057</v>
+        <v>0.001813499999997248</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002858099999997421</v>
+        <v>0.002294599999999036</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002347600000000227</v>
+        <v>0.002267600000003256</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002211299999999028</v>
+        <v>0.002094200000001933</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002042499999994618</v>
+        <v>0.002024299999995094</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002856300000004808</v>
+        <v>0.003952499999996917</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002093199999997353</v>
+        <v>0.002095700000005252</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.00229739999999623</v>
+        <v>0.002332899999998972</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.003103199999998196</v>
+        <v>0.002294700000000205</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002070500000002085</v>
+        <v>0.002002599999997301</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002783800000003112</v>
+        <v>0.002149000000002843</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002620600000000195</v>
+        <v>0.002477399999996521</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002325599999998929</v>
+        <v>0.002253899999999476</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002162599999998349</v>
+        <v>0.002061299999994048</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002572000000000685</v>
+        <v>0.002515699999996457</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00249740000000287</v>
+        <v>0.002205000000003565</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001880599999999788</v>
+        <v>0.001794900000000155</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.00353669999999795</v>
+        <v>0.003936100000004217</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002656700000002843</v>
+        <v>0.002414600000001599</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002662700000001905</v>
+        <v>0.001965500000004283</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002442199999997285</v>
+        <v>0.002215399999997203</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002284899999999368</v>
+        <v>0.002189500000000066</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001880500000005725</v>
+        <v>0.001819399999995142</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002625600000001782</v>
+        <v>0.002412999999997112</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002522599999998931</v>
+        <v>0.003456700000000978</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002793100000005211</v>
+        <v>0.002632800000000657</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00294550000000271</v>
+        <v>0.002236899999999764</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002104400000000339</v>
+        <v>0.002001899999996226</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002108499999998514</v>
+        <v>0.001995499999999595</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.00212689999999327</v>
+        <v>0.002973699999998303</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002939599999997711</v>
+        <v>0.002401599999998894</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002593500000003246</v>
+        <v>0.003426199999999824</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002704999999998847</v>
+        <v>0.002451100000001816</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.003566899999995599</v>
+        <v>0.002034599999994668</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.003057999999995786</v>
+        <v>0.002216100000005383</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.003084199999996429</v>
+        <v>0.0027702000000005</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.004779800000001444</v>
+        <v>0.002331400000002759</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.004650800000000288</v>
+        <v>0.002451700000001722</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.0.xlsx
+++ b/tests/test1/d30/ЛМ, 0.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.006765500000000202</v>
+        <v>0.01666349999999284</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.005367499999998415</v>
+        <v>0.01263439999999605</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002735199999996496</v>
+        <v>0.004056599999998411</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004631699999997352</v>
+        <v>0.005687699999995743</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.003725600000002771</v>
+        <v>0.00463120000000572</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.006569399999996506</v>
+        <v>0.003506700000002638</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.003411599999999737</v>
+        <v>0.002854900000002658</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001953100000001484</v>
+        <v>0.003484399999990728</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.009550300000000789</v>
+        <v>0.006615499999995222</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.008816800000005287</v>
+        <v>0.003180499999999142</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.00659339999999986</v>
+        <v>0.002813399999993749</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.004433699999999874</v>
+        <v>0.003860500000001821</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002473199999997178</v>
+        <v>0.002985899999998765</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.003800699999999324</v>
+        <v>0.002541699999994762</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.006319999999995218</v>
+        <v>0.00272300000000314</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.004758999999999958</v>
+        <v>0.002189799999996467</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.005254299999997158</v>
+        <v>0.002149500000001581</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002211500000001365</v>
+        <v>0.003262400000011212</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002170899999995868</v>
+        <v>0.002411499999993794</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001868300000005263</v>
+        <v>0.001888399999998569</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.003170899999993537</v>
+        <v>0.002976300000000265</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001806899999998279</v>
+        <v>0.002956900000000928</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001726699999998971</v>
+        <v>0.002214399999999728</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.007023900000000083</v>
+        <v>0.002891200000007643</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.00194309999999831</v>
+        <v>0.002228600000009351</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002299700000001792</v>
+        <v>0.002378399999997782</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002390599999998244</v>
+        <v>0.002390500000004181</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002473300000005452</v>
+        <v>0.004038800000003562</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002234999999998877</v>
+        <v>0.002535100000002899</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.003958999999994717</v>
+        <v>0.002145199999986858</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002173100000000261</v>
+        <v>0.004488700000010226</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.004166400000002568</v>
+        <v>0.002641699999998082</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002035700000000418</v>
+        <v>0.002233200000006264</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001926300000000936</v>
+        <v>0.002178799999995817</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002450600000003078</v>
+        <v>0.002064899999993486</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.001982900000001564</v>
+        <v>0.00216079999999863</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.00244400000000411</v>
+        <v>0.002875899999992271</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.00194450000000046</v>
+        <v>0.003247999999999251</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.004057000000003086</v>
+        <v>0.003939699999989443</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002614199999996458</v>
+        <v>0.00292389999999898</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.001960099999998022</v>
+        <v>0.002212900000003515</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002007599999998888</v>
+        <v>0.002290900000005536</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002620600000000195</v>
+        <v>0.002795199999994225</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001810200000001316</v>
+        <v>0.003176800000005642</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.001961800000003677</v>
+        <v>0.002230599999990091</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.00245970000000284</v>
+        <v>0.002160299999999893</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.00221899999999664</v>
+        <v>0.002425099999996405</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001741299999999057</v>
+        <v>0.001895900000008055</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001787200000002542</v>
+        <v>0.001897299999995994</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001966100000004189</v>
+        <v>0.002311800000001085</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002316299999996829</v>
+        <v>0.002048999999999523</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002099399999998752</v>
+        <v>0.003488700000005451</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.001963099999997553</v>
+        <v>0.002167900000003442</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002304999999999779</v>
+        <v>0.002536000000006311</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002191499999995017</v>
+        <v>0.002401199999994219</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.003085399999996241</v>
+        <v>0.001932999999993967</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001747500000000457</v>
+        <v>0.001877899999996657</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.0017770999999982</v>
+        <v>0.002446500000004903</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002263499999997975</v>
+        <v>0.00241760000000113</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002209600000000478</v>
+        <v>0.004466300000004253</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.003817300000001467</v>
+        <v>0.002174800000005916</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.00201020000000085</v>
+        <v>0.004661200000001031</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001813499999997248</v>
+        <v>0.004725199999995766</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002294599999999036</v>
+        <v>0.002438200000000279</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002267600000003256</v>
+        <v>0.00448629999999639</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002094200000001933</v>
+        <v>0.002233700000005001</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002024299999995094</v>
+        <v>0.003106299999998896</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.003952499999996917</v>
+        <v>0.003085899999987873</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002095700000005252</v>
+        <v>0.002165800000000218</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002332899999998972</v>
+        <v>0.004299799999998299</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002294700000000205</v>
+        <v>0.002437599999993267</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002002599999997301</v>
+        <v>0.002231300000005376</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002149000000002843</v>
+        <v>0.001965299999994841</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002477399999996521</v>
+        <v>0.002693600000000629</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002253899999999476</v>
+        <v>0.002484400000000164</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002061299999994048</v>
+        <v>0.003253499999999576</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002515699999996457</v>
+        <v>0.002809100000007447</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002205000000003565</v>
+        <v>0.002550200000001723</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001794900000000155</v>
+        <v>0.002162999999995918</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003936100000004217</v>
+        <v>0.003785500000006436</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002414600000001599</v>
+        <v>0.002888499999997407</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.001965500000004283</v>
+        <v>0.002866300000007982</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002215399999997203</v>
+        <v>0.00255320000000836</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002189500000000066</v>
+        <v>0.002533600000006686</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001819399999995142</v>
+        <v>0.00190029999998842</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002412999999997112</v>
+        <v>0.002777799999989838</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003456700000000978</v>
+        <v>0.002179300000008766</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002632800000000657</v>
+        <v>0.004091699999989373</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002236899999999764</v>
+        <v>0.002383899999998107</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002001899999996226</v>
+        <v>0.003687600000006341</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.001995499999999595</v>
+        <v>0.00221220000000244</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002973699999998303</v>
+        <v>0.002142100000000369</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002401599999998894</v>
+        <v>0.00272329999999954</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003426199999999824</v>
+        <v>0.003116199999993796</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002451100000001816</v>
+        <v>0.00296740000000284</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002034599999994668</v>
+        <v>0.002274400000004562</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002216100000005383</v>
+        <v>0.002569499999992786</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.0027702000000005</v>
+        <v>0.002958100000000741</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002331400000002759</v>
+        <v>0.002653799999990269</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8706,7 +8706,7 @@
         <v>121.0106576543648</v>
       </c>
       <c r="H101" t="n">
-        <v>8.85685976921345</v>
+        <v>8.856859769213449</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>5.427910570893073e-11</v>
       </c>
       <c r="V101" t="n">
-        <v>5.899362623825862e-05</v>
+        <v>5.899362623876002e-05</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002451700000001722</v>
+        <v>0.002428800000004117</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.0.xlsx
+++ b/tests/test1/d30/ЛМ, 0.0.xlsx
@@ -582,13 +582,13 @@
         <v>1.315786970734904e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>29.99978360633058</v>
+        <v>29.9997836063306</v>
       </c>
       <c r="G2" t="n">
         <v>98.78664657018194</v>
       </c>
       <c r="H2" t="n">
-        <v>11.58214479816578</v>
+        <v>11.5821447981658</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>30.54451192605573</v>
       </c>
       <c r="P2" t="n">
-        <v>29.33037899590004</v>
+        <v>29.33037899590006</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.656428172907063e-11</v>
+        <v>3.656428172137864e-11</v>
       </c>
       <c r="V2" t="n">
-        <v>5.268415814572349e-05</v>
+        <v>5.268415814162639e-05</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.01666349999999284</v>
+        <v>0.002727799999998837</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,13 +664,13 @@
         <v>3.634478941936561e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>29.99994018785261</v>
+        <v>29.99994018785263</v>
       </c>
       <c r="G3" t="n">
-        <v>75.06401057387886</v>
+        <v>75.06401057387883</v>
       </c>
       <c r="H3" t="n">
-        <v>11.64385307752222</v>
+        <v>11.64385307752223</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>25.33705058450774</v>
       </c>
       <c r="P3" t="n">
-        <v>34.28266471917028</v>
+        <v>34.2826647191703</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.774797804697599e-12</v>
+        <v>2.774797803452587e-12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.552698467329941e-05</v>
+        <v>1.552698466855367e-05</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.01263439999999605</v>
+        <v>0.002412400000000758</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>30.00001325176366</v>
       </c>
       <c r="G4" t="n">
-        <v>78.47858016778191</v>
+        <v>78.478580167782</v>
       </c>
       <c r="H4" t="n">
-        <v>3.31113068443676</v>
+        <v>3.311130684436757</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>10.18789886291034</v>
       </c>
       <c r="P4" t="n">
-        <v>28.62865463266107</v>
+        <v>28.62865463266106</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.237174688865087e-12</v>
+        <v>1.237174688767231e-12</v>
       </c>
       <c r="V4" t="n">
-        <v>2.814651777292355e-05</v>
+        <v>2.814651776765591e-05</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.004056599999998411</v>
+        <v>0.004006000000000398</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,13 +828,13 @@
         <v>1.242136407909163e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>29.99979650216291</v>
+        <v>29.99979650216292</v>
       </c>
       <c r="G5" t="n">
         <v>99.14383022175598</v>
       </c>
       <c r="H5" t="n">
-        <v>11.49765467406756</v>
+        <v>11.49765467406757</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>30.42185522937714</v>
       </c>
       <c r="P5" t="n">
-        <v>29.21289045779412</v>
+        <v>29.21289045779413</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.259366083663307e-11</v>
+        <v>3.259366083560142e-11</v>
       </c>
       <c r="V5" t="n">
-        <v>4.973267176923898e-05</v>
+        <v>4.973267176785843e-05</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.005687699999995743</v>
+        <v>0.002047099999998636</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -910,13 +910,13 @@
         <v>359.9999979297445</v>
       </c>
       <c r="F6" t="n">
-        <v>29.99999354051467</v>
+        <v>29.99999354051468</v>
       </c>
       <c r="G6" t="n">
         <v>174.0653327329522</v>
       </c>
       <c r="H6" t="n">
-        <v>9.566763496714092</v>
+        <v>9.566763496714097</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>8.399718980624399</v>
       </c>
       <c r="P6" t="n">
-        <v>16.13815644978701</v>
+        <v>16.138156449787</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>7.933266773242573e-13</v>
+        <v>7.933266777723807e-13</v>
       </c>
       <c r="V6" t="n">
-        <v>9.725332280175034e-06</v>
+        <v>9.725332278415529e-06</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.00463120000000572</v>
+        <v>0.003177400000001995</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -992,13 +992,13 @@
         <v>4.594811055181133e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>29.99993193436582</v>
+        <v>29.99993193436583</v>
       </c>
       <c r="G7" t="n">
-        <v>39.95880556513082</v>
+        <v>39.95880556513083</v>
       </c>
       <c r="H7" t="n">
-        <v>13.44871838829907</v>
+        <v>13.44871838829908</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>16.18088738805111</v>
       </c>
       <c r="P7" t="n">
-        <v>41.39353861017288</v>
+        <v>41.39353861017289</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>4.186621716726732e-12</v>
+        <v>4.186621715548023e-12</v>
       </c>
       <c r="V7" t="n">
-        <v>2.071203970779424e-05</v>
+        <v>2.071203970661177e-05</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003506700000002638</v>
+        <v>0.03223730000000202</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>359.9999947260512</v>
       </c>
       <c r="F8" t="n">
-        <v>30.00001677604348</v>
+        <v>30.00001677604347</v>
       </c>
       <c r="G8" t="n">
         <v>160.7145940040815</v>
       </c>
       <c r="H8" t="n">
-        <v>6.983721935522818</v>
+        <v>6.983721935522814</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>11.43325564520168</v>
       </c>
       <c r="P8" t="n">
-        <v>19.8677060374688</v>
+        <v>19.86770603746879</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>4.723878431139127e-12</v>
+        <v>4.723878431587721e-12</v>
       </c>
       <c r="V8" t="n">
-        <v>2.551600905394094e-05</v>
+        <v>2.551600905461665e-05</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002854900000002658</v>
+        <v>0.001704400000001272</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1162,7 +1162,7 @@
         <v>13.73534334139227</v>
       </c>
       <c r="H9" t="n">
-        <v>12.3594309494178</v>
+        <v>12.35943094941779</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>4.884140747657e-11</v>
+        <v>4.884140747642896e-11</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001099763550561359</v>
+        <v>0.0001099763550546986</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.003484399999990728</v>
+        <v>0.001476100000001423</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1265,7 +1265,7 @@
         <v>13.7482000025743</v>
       </c>
       <c r="O10" t="n">
-        <v>35.40628372163127</v>
+        <v>35.40628372163126</v>
       </c>
       <c r="P10" t="n">
         <v>13.74821661518776</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>5.050284962591379e-13</v>
+        <v>5.0502849643304e-13</v>
       </c>
       <c r="V10" t="n">
-        <v>4.480137743854112e-06</v>
+        <v>4.480137744373159e-06</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.006615499999995222</v>
+        <v>0.002234600000001308</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1326,7 +1326,7 @@
         <v>1.867351462326721</v>
       </c>
       <c r="H11" t="n">
-        <v>9.02255904477455</v>
+        <v>9.022559044774535</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>2.283218663653344</v>
       </c>
       <c r="P11" t="n">
-        <v>38.23528298699836</v>
+        <v>38.23528298699835</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>4.334528564000732e-13</v>
+        <v>4.334528562274016e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>2.006350306569325e-05</v>
+        <v>2.006350306113619e-05</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.003180499999999142</v>
+        <v>0.001496299999999451</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1402,7 +1402,7 @@
         <v>359.9999983768767</v>
       </c>
       <c r="F12" t="n">
-        <v>30.00000115922294</v>
+        <v>30.00000115922295</v>
       </c>
       <c r="G12" t="n">
         <v>138.8374219747804</v>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>4.170770466976578e-13</v>
+        <v>4.170770465589528e-13</v>
       </c>
       <c r="V12" t="n">
-        <v>1.893203298951153e-05</v>
+        <v>1.893203299056379e-05</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002813399999993749</v>
+        <v>0.002400899999997819</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>29.99992938270154</v>
       </c>
       <c r="G13" t="n">
-        <v>32.44534425595724</v>
+        <v>32.4453442559572</v>
       </c>
       <c r="H13" t="n">
-        <v>3.234087242985726</v>
+        <v>3.234087242985731</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>6.055763167845956</v>
       </c>
       <c r="P13" t="n">
-        <v>30.83072128490317</v>
+        <v>30.83072128490318</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>7.312630011484074e-11</v>
+        <v>7.312630011399731e-11</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0004040427524173978</v>
+        <v>0.0004040427524226124</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.003860500000001821</v>
+        <v>0.001500200000002394</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1563,13 +1563,13 @@
         <v>11.88059635818486</v>
       </c>
       <c r="E14" t="n">
-        <v>1.871301190888612e-06</v>
+        <v>1.871301178166394e-06</v>
       </c>
       <c r="F14" t="n">
         <v>29.99998079164875</v>
       </c>
       <c r="G14" t="n">
-        <v>27.7493312091974</v>
+        <v>27.74933120919741</v>
       </c>
       <c r="H14" t="n">
         <v>11.88056593597662</v>
@@ -1596,7 +1596,7 @@
         <v>11.04565063534711</v>
       </c>
       <c r="P14" t="n">
-        <v>40.75568601118959</v>
+        <v>40.7556860111896</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.137182558211737e-13</v>
+        <v>6.137182559078949e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>9.55788849216994e-06</v>
+        <v>9.557888492963706e-06</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002985899999998765</v>
+        <v>0.001843499999999665</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1648,13 +1648,13 @@
         <v>359.9999860082866</v>
       </c>
       <c r="F15" t="n">
-        <v>30.00010797502759</v>
+        <v>30.0001079750276</v>
       </c>
       <c r="G15" t="n">
-        <v>139.9854681133311</v>
+        <v>139.9854681133312</v>
       </c>
       <c r="H15" t="n">
-        <v>5.850464410758236</v>
+        <v>5.85046441075824</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>3.703677131597696e-11</v>
+        <v>3.703677131711186e-11</v>
       </c>
       <c r="V15" t="n">
-        <v>5.641441705017572e-05</v>
+        <v>5.641441704749702e-05</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002541699999994762</v>
+        <v>0.001684700000001982</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1730,13 +1730,13 @@
         <v>1.740697951870376e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>29.99970411425663</v>
+        <v>29.99970411425664</v>
       </c>
       <c r="G16" t="n">
         <v>92.510039034344</v>
       </c>
       <c r="H16" t="n">
-        <v>12.27779380446982</v>
+        <v>12.27779380446983</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1757,10 +1757,10 @@
         <v>31.10359375652314</v>
       </c>
       <c r="O16" t="n">
-        <v>30.72178955785942</v>
+        <v>30.72178955785943</v>
       </c>
       <c r="P16" t="n">
-        <v>31.10318433327398</v>
+        <v>31.103184333274</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>6.390908383466703e-11</v>
+        <v>6.390908382928072e-11</v>
       </c>
       <c r="V16" t="n">
-        <v>7.038792587129068e-05</v>
+        <v>7.03879258621483e-05</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.00272300000000314</v>
+        <v>0.002063799999998395</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>152.7869274256344</v>
       </c>
       <c r="H17" t="n">
-        <v>5.146726622310585</v>
+        <v>5.146726622310588</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>22.25264734341951</v>
       </c>
       <c r="O17" t="n">
-        <v>10.34172766408332</v>
+        <v>10.34172766408331</v>
       </c>
       <c r="P17" t="n">
-        <v>22.2526955624443</v>
+        <v>22.25269556244431</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.788614820919035e-12</v>
+        <v>1.788614821045088e-12</v>
       </c>
       <c r="V17" t="n">
-        <v>2.25584062824946e-05</v>
+        <v>2.255840628103497e-05</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002189799999996467</v>
+        <v>0.001869400000000354</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1894,13 +1894,13 @@
         <v>5.110878227075828e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>29.99994315795487</v>
+        <v>29.99994315795488</v>
       </c>
       <c r="G18" t="n">
         <v>40.19249793376065</v>
       </c>
       <c r="H18" t="n">
-        <v>9.27789331555457</v>
+        <v>9.277893315554577</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>13.10617482881545</v>
       </c>
       <c r="P18" t="n">
-        <v>36.84805857691502</v>
+        <v>36.84805857691504</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>4.834067208011746e-12</v>
+        <v>4.834067205990455e-12</v>
       </c>
       <c r="V18" t="n">
-        <v>2.789311094094741e-05</v>
+        <v>2.789311093806867e-05</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002149500000001581</v>
+        <v>0.001904299999999637</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>1.955183727891253e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>29.99997412364785</v>
+        <v>29.99997412364787</v>
       </c>
       <c r="G19" t="n">
-        <v>53.03974137732997</v>
+        <v>53.03974137732998</v>
       </c>
       <c r="H19" t="n">
-        <v>9.367018642670661</v>
+        <v>9.367018642670669</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>35.61949574546529</v>
       </c>
       <c r="O19" t="n">
-        <v>16.5598618336309</v>
+        <v>16.55986183363089</v>
       </c>
       <c r="P19" t="n">
-        <v>35.61944482739</v>
+        <v>35.61944482739003</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>7.557787244322338e-13</v>
+        <v>7.557787242864304e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>9.869001197155685e-06</v>
+        <v>9.869001193929417e-06</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.003262400000011212</v>
+        <v>0.001913999999999305</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>117.0681828925724</v>
       </c>
       <c r="H20" t="n">
-        <v>9.065286422409784</v>
+        <v>9.065286422409786</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.535786463998744e-10</v>
+        <v>1.535786463976863e-10</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0001021065454133181</v>
+        <v>0.0001021065454130658</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002411499999993794</v>
+        <v>0.001949200000002094</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>9.17154089725154e-11</v>
+        <v>9.171540897175735e-11</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0001375856699939042</v>
+        <v>0.0001375856699931723</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001888399999998569</v>
+        <v>0.001467600000001568</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.622502941762196e-12</v>
+        <v>1.62250294154159e-12</v>
       </c>
       <c r="V22" t="n">
-        <v>1.078320138876405e-05</v>
+        <v>1.078320138165862e-05</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002976300000000265</v>
+        <v>0.002142400000000322</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2304,13 +2304,13 @@
         <v>359.9999932640528</v>
       </c>
       <c r="F23" t="n">
-        <v>29.9999276249427</v>
+        <v>29.99992762494269</v>
       </c>
       <c r="G23" t="n">
-        <v>8.770333438940535</v>
+        <v>8.770333438940522</v>
       </c>
       <c r="H23" t="n">
-        <v>6.469514888269889</v>
+        <v>6.469514888269888</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>3.841882898349109</v>
       </c>
       <c r="P23" t="n">
-        <v>35.13516625098259</v>
+        <v>35.13516625098258</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>7.676975737181394e-12</v>
+        <v>7.676975737120751e-12</v>
       </c>
       <c r="V23" t="n">
-        <v>8.936475095670292e-05</v>
+        <v>8.936475095673319e-05</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002956900000000928</v>
+        <v>0.001456399999998581</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,13 +2386,13 @@
         <v>3.962313279895447e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>29.99996749770252</v>
+        <v>29.99996749770251</v>
       </c>
       <c r="G24" t="n">
         <v>37.52299296557285</v>
       </c>
       <c r="H24" t="n">
-        <v>8.780121213218814</v>
+        <v>8.780121213218813</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>11.98627969903396</v>
       </c>
       <c r="P24" t="n">
-        <v>36.53650892792123</v>
+        <v>36.53650892792122</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2.41450251547131e-12</v>
+        <v>2.414502516138354e-12</v>
       </c>
       <c r="V24" t="n">
-        <v>2.214922567611596e-05</v>
+        <v>2.214922567694587e-05</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002214399999999728</v>
+        <v>0.001383700000001653</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2468,13 +2468,13 @@
         <v>2.220661306653925e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>29.99995941940753</v>
+        <v>29.99995941940755</v>
       </c>
       <c r="G25" t="n">
         <v>93.11363946217182</v>
       </c>
       <c r="H25" t="n">
-        <v>14.36352321532308</v>
+        <v>14.3635232153231</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>34.79974733952092</v>
       </c>
       <c r="P25" t="n">
-        <v>32.20767155849934</v>
+        <v>32.20767155849936</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2513,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.031368606020076e-12</v>
+        <v>1.031368605966422e-12</v>
       </c>
       <c r="V25" t="n">
-        <v>8.835561197721129e-06</v>
+        <v>8.835561194395312e-06</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002891200000007643</v>
+        <v>0.002123099999998601</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2553,7 +2553,7 @@
         <v>30.0000091667033</v>
       </c>
       <c r="G26" t="n">
-        <v>172.8029936462639</v>
+        <v>172.802993646264</v>
       </c>
       <c r="H26" t="n">
         <v>11.39409282412904</v>
@@ -2577,7 +2577,7 @@
         <v>14.11601099751434</v>
       </c>
       <c r="O26" t="n">
-        <v>11.78643067221954</v>
+        <v>11.78643067221953</v>
       </c>
       <c r="P26" t="n">
         <v>14.11608729253859</v>
@@ -2595,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.026175494058972e-11</v>
+        <v>1.026175493984241e-11</v>
       </c>
       <c r="V26" t="n">
-        <v>2.469732220726492e-05</v>
+        <v>2.469732220595489e-05</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002228600000009351</v>
+        <v>0.00215910000000008</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2638,7 +2638,7 @@
         <v>156.622249823347</v>
       </c>
       <c r="H27" t="n">
-        <v>9.987323340834521</v>
+        <v>9.98732334083452</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>2.68109652988236e-12</v>
+        <v>2.681096527938356e-12</v>
       </c>
       <c r="V27" t="n">
-        <v>7.638115723904809e-06</v>
+        <v>7.638115724881242e-06</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002378399999997782</v>
+        <v>0.001798300000000808</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2714,13 +2714,13 @@
         <v>2.386705916854252e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>29.99996811024981</v>
+        <v>29.99996811024979</v>
       </c>
       <c r="G28" t="n">
-        <v>55.4283436417979</v>
+        <v>55.42834364179791</v>
       </c>
       <c r="H28" t="n">
-        <v>9.232671118893109</v>
+        <v>9.2326711188931</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>35.20863709983118</v>
       </c>
       <c r="O28" t="n">
-        <v>16.99876131519089</v>
+        <v>16.9987613151909</v>
       </c>
       <c r="P28" t="n">
-        <v>35.20857566241632</v>
+        <v>35.20857566241629</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.132717631312194e-12</v>
+        <v>1.13271763097985e-12</v>
       </c>
       <c r="V28" t="n">
-        <v>1.201136315854262e-05</v>
+        <v>1.201136315518757e-05</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002390500000004181</v>
+        <v>0.001742100000001301</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>9.049310223089975e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>29.99984389577063</v>
+        <v>29.99984389577064</v>
       </c>
       <c r="G29" t="n">
-        <v>76.6299518825732</v>
+        <v>76.62995188257317</v>
       </c>
       <c r="H29" t="n">
-        <v>12.77489573012469</v>
+        <v>12.7748957301247</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>27.47749920301807</v>
       </c>
       <c r="P29" t="n">
-        <v>34.86094122787814</v>
+        <v>34.86094122787816</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2841,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.725809544272451e-11</v>
+        <v>1.725809544122936e-11</v>
       </c>
       <c r="V29" t="n">
-        <v>3.771677556653804e-05</v>
+        <v>3.771677556378082e-05</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.004038800000003562</v>
+        <v>0.001932799999998736</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>1.917503118991224e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>29.99974016043668</v>
+        <v>29.99974016043667</v>
       </c>
       <c r="G30" t="n">
         <v>131.2230114856492</v>
       </c>
       <c r="H30" t="n">
-        <v>9.734783718336628</v>
+        <v>9.734783718336624</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2905,10 +2905,10 @@
         <v>22.06038522110382</v>
       </c>
       <c r="O30" t="n">
-        <v>26.83054164484091</v>
+        <v>26.8305416448409</v>
       </c>
       <c r="P30" t="n">
-        <v>22.06007895739181</v>
+        <v>22.0600789573918</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>7.911357791203957e-11</v>
+        <v>7.911357791726011e-11</v>
       </c>
       <c r="V30" t="n">
-        <v>6.488060106635683e-05</v>
+        <v>6.488060107491144e-05</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002535100000002899</v>
+        <v>0.001817700000000144</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2963,7 +2963,7 @@
         <v>30.00002956689053</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4764398939445</v>
+        <v>155.4764398939444</v>
       </c>
       <c r="H31" t="n">
         <v>6.418833829189903</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>7.635757480044055e-12</v>
+        <v>7.635757480505798e-12</v>
       </c>
       <c r="V31" t="n">
-        <v>3.244316042607468e-05</v>
+        <v>3.244316042749577e-05</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002145199999986858</v>
+        <v>0.001626999999999157</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3042,13 +3042,13 @@
         <v>2.671547374073048e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>29.99996601699892</v>
+        <v>29.99996601699891</v>
       </c>
       <c r="G32" t="n">
         <v>115.9459517743038</v>
       </c>
       <c r="H32" t="n">
-        <v>7.568970398319121</v>
+        <v>7.568970398319119</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>21.7462531439449</v>
       </c>
       <c r="P32" t="n">
-        <v>25.20330835053094</v>
+        <v>25.20330835053093</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3087,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.504483831409508e-12</v>
+        <v>1.504483832989249e-12</v>
       </c>
       <c r="V32" t="n">
-        <v>1.053760679024148e-05</v>
+        <v>1.053760679318903e-05</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004488700000010226</v>
+        <v>0.001759899999999703</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3127,10 +3127,10 @@
         <v>29.9999743059124</v>
       </c>
       <c r="G33" t="n">
-        <v>51.48969721957777</v>
+        <v>51.48969721957774</v>
       </c>
       <c r="H33" t="n">
-        <v>14.49724443339054</v>
+        <v>14.49724443339055</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>21.14835742642882</v>
       </c>
       <c r="P33" t="n">
-        <v>40.97548062608578</v>
+        <v>40.9754806260858</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3169,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.720122875069733e-13</v>
+        <v>4.720122867799078e-13</v>
       </c>
       <c r="V33" t="n">
-        <v>6.440452860578142e-06</v>
+        <v>6.440452857162608e-06</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002641699999998082</v>
+        <v>0.002008599999999916</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
         <v>154.5993587823536</v>
       </c>
       <c r="H34" t="n">
-        <v>7.472478098859366</v>
+        <v>7.472478098859369</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>14.58269777592711</v>
       </c>
       <c r="P34" t="n">
-        <v>19.92550511388382</v>
+        <v>19.92550511388381</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>5.171762248036056e-11</v>
+        <v>5.171762247752005e-11</v>
       </c>
       <c r="V34" t="n">
-        <v>5.937015212380751e-05</v>
+        <v>5.937015212232176e-05</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002233200000006264</v>
+        <v>0.001922000000000423</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3288,10 +3288,10 @@
         <v>4.08277007112439e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>29.9999551059894</v>
+        <v>29.99995510598939</v>
       </c>
       <c r="G35" t="n">
-        <v>44.73192897296865</v>
+        <v>44.73192897296864</v>
       </c>
       <c r="H35" t="n">
         <v>8.399655569619247</v>
@@ -3318,7 +3318,7 @@
         <v>13.45458423528691</v>
       </c>
       <c r="P35" t="n">
-        <v>35.5190376450678</v>
+        <v>35.51903764506779</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.104141326730394e-12</v>
+        <v>3.104141326731367e-12</v>
       </c>
       <c r="V35" t="n">
-        <v>2.319184557842508e-05</v>
+        <v>2.319184557804794e-05</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002178799999995817</v>
+        <v>0.001727999999999952</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3373,10 +3373,10 @@
         <v>29.99995652960304</v>
       </c>
       <c r="G36" t="n">
-        <v>6.941070033951818</v>
+        <v>6.941070033951831</v>
       </c>
       <c r="H36" t="n">
-        <v>12.36138019302529</v>
+        <v>12.36138019302528</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>4.025129848735716</v>
       </c>
       <c r="P36" t="n">
-        <v>42.21265746357862</v>
+        <v>42.2126574635786</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>4.7082629437736e-12</v>
+        <v>4.708262943016457e-12</v>
       </c>
       <c r="V36" t="n">
-        <v>4.349449220950159e-05</v>
+        <v>4.349449220570716e-05</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002064899999993486</v>
+        <v>0.001495900000001882</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3458,7 +3458,7 @@
         <v>82.45107945014449</v>
       </c>
       <c r="H37" t="n">
-        <v>6.700022839709253</v>
+        <v>6.700022839709252</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.187966759142588e-10</v>
+        <v>1.187966759095005e-10</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0001289729636365043</v>
+        <v>0.0001289729636370339</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.00216079999999863</v>
+        <v>0.001568100000000072</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3534,7 +3534,7 @@
         <v>1.456620547852712e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>29.99997974910631</v>
+        <v>29.9999797491063</v>
       </c>
       <c r="G38" t="n">
         <v>131.1313317447586</v>
@@ -3564,7 +3564,7 @@
         <v>28.31385913953591</v>
       </c>
       <c r="P38" t="n">
-        <v>21.94211401657835</v>
+        <v>21.94211401657834</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>4.551930090303944e-13</v>
+        <v>4.551930089976601e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>4.948781809252727e-06</v>
+        <v>4.948781810496847e-06</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002875899999992271</v>
+        <v>0.002010000000002066</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -3619,10 +3619,10 @@
         <v>29.99999875723003</v>
       </c>
       <c r="G39" t="n">
-        <v>170.0093095208969</v>
+        <v>170.0093095208968</v>
       </c>
       <c r="H39" t="n">
-        <v>8.569149871212527</v>
+        <v>8.569149871212522</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3643,10 +3643,10 @@
         <v>17.50763382333646</v>
       </c>
       <c r="O39" t="n">
-        <v>9.715178282509854</v>
+        <v>9.715178282509841</v>
       </c>
       <c r="P39" t="n">
-        <v>17.50766899297674</v>
+        <v>17.50766899297675</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.551586544254851e-12</v>
+        <v>1.551586545160944e-12</v>
       </c>
       <c r="V39" t="n">
-        <v>1.402856005590406e-05</v>
+        <v>1.402856005245085e-05</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.003247999999999251</v>
+        <v>0.002044399999999058</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3698,13 +3698,13 @@
         <v>6.695479867978514e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>29.99988356575047</v>
+        <v>29.99988356575046</v>
       </c>
       <c r="G40" t="n">
         <v>69.25922241453483</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31640780619841</v>
+        <v>13.3164078061984</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3725,10 +3725,10 @@
         <v>36.76281015298541</v>
       </c>
       <c r="O40" t="n">
-        <v>25.99803546040377</v>
+        <v>25.99803546040375</v>
       </c>
       <c r="P40" t="n">
-        <v>36.76261993452594</v>
+        <v>36.76261993452592</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>9.43135738378836e-12</v>
+        <v>9.431357383704511e-12</v>
       </c>
       <c r="V40" t="n">
-        <v>2.809465442424503e-05</v>
+        <v>2.809465443463989e-05</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003939699999989443</v>
+        <v>0.001991900000000157</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3786,7 +3786,7 @@
         <v>98.44042098124969</v>
       </c>
       <c r="H41" t="n">
-        <v>12.57449461748589</v>
+        <v>12.57449461748588</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.606075220395785e-10</v>
+        <v>1.60607522049762e-10</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0001095738839337554</v>
+        <v>0.0001095738839346599</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.00292389999999898</v>
+        <v>0.001954200000000128</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3865,7 +3865,7 @@
         <v>30.00001806819973</v>
       </c>
       <c r="G42" t="n">
-        <v>73.38318708639058</v>
+        <v>73.38318708639056</v>
       </c>
       <c r="H42" t="n">
         <v>3.664414133496003</v>
@@ -3892,7 +3892,7 @@
         <v>10.64650975636533</v>
       </c>
       <c r="P42" t="n">
-        <v>29.14282188229787</v>
+        <v>29.14282188229788</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.685410794816163e-12</v>
+        <v>1.685410794785968e-12</v>
       </c>
       <c r="V42" t="n">
-        <v>3.091459235788394e-05</v>
+        <v>3.091459235839009e-05</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002212900000003515</v>
+        <v>0.001951200000000597</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3944,13 +3944,13 @@
         <v>359.9999989788809</v>
       </c>
       <c r="F43" t="n">
-        <v>30.00000138602836</v>
+        <v>30.00000138602835</v>
       </c>
       <c r="G43" t="n">
-        <v>45.16610841746287</v>
+        <v>45.16610841746284</v>
       </c>
       <c r="H43" t="n">
-        <v>3.553163062319594</v>
+        <v>3.553163062319597</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.591744323984578e-13</v>
+        <v>1.591744324527415e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>1.417835371708921e-05</v>
+        <v>1.417835371936206e-05</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002290900000005536</v>
+        <v>0.001644899999998728</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,10 +4026,10 @@
         <v>1.048966854396749e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>29.99981108712988</v>
+        <v>29.9998110871299</v>
       </c>
       <c r="G44" t="n">
-        <v>67.4172951908542</v>
+        <v>67.41729519085422</v>
       </c>
       <c r="H44" t="n">
         <v>14.40842590050333</v>
@@ -4053,10 +4053,10 @@
         <v>38.09464111448521</v>
       </c>
       <c r="O44" t="n">
-        <v>26.73092568379662</v>
+        <v>26.73092568379661</v>
       </c>
       <c r="P44" t="n">
-        <v>38.09432769417472</v>
+        <v>38.09432769417474</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.319492012599966e-11</v>
+        <v>2.319492011910155e-11</v>
       </c>
       <c r="V44" t="n">
-        <v>4.358620210510202e-05</v>
+        <v>4.358620210324479e-05</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002795199999994225</v>
+        <v>0.001969400000000121</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,7 +4108,7 @@
         <v>359.999969242688</v>
       </c>
       <c r="F45" t="n">
-        <v>30.00016678177851</v>
+        <v>30.00016678177852</v>
       </c>
       <c r="G45" t="n">
         <v>20.70939232583433</v>
@@ -4138,7 +4138,7 @@
         <v>8.101498310156039</v>
       </c>
       <c r="P45" t="n">
-        <v>39.34837872087634</v>
+        <v>39.34837872087635</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.491394977984314e-10</v>
+        <v>1.491394978069056e-10</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0001882011678237948</v>
+        <v>0.0001882011678261199</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003176800000005642</v>
+        <v>0.001391899999998003</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4196,7 +4196,7 @@
         <v>150.2713670947404</v>
       </c>
       <c r="H46" t="n">
-        <v>4.257535592259083</v>
+        <v>4.257535592259085</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>9.169297764835651</v>
       </c>
       <c r="P46" t="n">
-        <v>23.24404676595222</v>
+        <v>23.24404676595221</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4235,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>6.635364739675172e-13</v>
+        <v>6.635364735905359e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>1.840380323282023e-05</v>
+        <v>1.840380322881559e-05</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002230599999990091</v>
+        <v>0.001658000000002602</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4278,7 +4278,7 @@
         <v>178.0220654337039</v>
       </c>
       <c r="H47" t="n">
-        <v>9.594527396531646</v>
+        <v>9.59452739653165</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4317,10 +4317,10 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>7.223292362553629e-14</v>
+        <v>7.223292361220459e-14</v>
       </c>
       <c r="V47" t="n">
-        <v>3.368324264643758e-06</v>
+        <v>3.368324263903613e-06</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002160299999999893</v>
+        <v>0.001566600000000307</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4360,7 +4360,7 @@
         <v>141.0900073765991</v>
       </c>
       <c r="H48" t="n">
-        <v>10.61797193629189</v>
+        <v>10.61797193629188</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1.22017233945661e-11</v>
+        <v>1.220172339238577e-11</v>
       </c>
       <c r="V48" t="n">
-        <v>2.323531559331015e-05</v>
+        <v>2.323531559372839e-05</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002425099999996405</v>
+        <v>0.001745100000000832</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,10 +4436,10 @@
         <v>2.014828995521537e-05</v>
       </c>
       <c r="F49" t="n">
-        <v>29.99983108659271</v>
+        <v>29.99983108659273</v>
       </c>
       <c r="G49" t="n">
-        <v>20.42804820184354</v>
+        <v>20.42804820184355</v>
       </c>
       <c r="H49" t="n">
         <v>14.69341289482263</v>
@@ -4466,7 +4466,7 @@
         <v>9.470988576684267</v>
       </c>
       <c r="P49" t="n">
-        <v>44.51346443547752</v>
+        <v>44.51346443547754</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>6.255516711398767e-11</v>
+        <v>6.255516711361755e-11</v>
       </c>
       <c r="V49" t="n">
-        <v>9.577308861600182e-05</v>
+        <v>9.577308861637642e-05</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001895900000008055</v>
+        <v>0.001762000000002928</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4518,13 +4518,13 @@
         <v>359.9999983602449</v>
       </c>
       <c r="F50" t="n">
-        <v>29.99997123889995</v>
+        <v>29.99997123889994</v>
       </c>
       <c r="G50" t="n">
         <v>3.148247015583227</v>
       </c>
       <c r="H50" t="n">
-        <v>13.6989489378663</v>
+        <v>13.69894893786629</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>2.710211630105137</v>
       </c>
       <c r="P50" t="n">
-        <v>43.84658178764176</v>
+        <v>43.84658178764173</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -4563,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>4.623867041228864e-13</v>
+        <v>4.623867041516227e-13</v>
       </c>
       <c r="V50" t="n">
-        <v>1.506569131082675e-05</v>
+        <v>1.506569130844969e-05</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001897299999995994</v>
+        <v>0.001523999999999859</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4600,10 +4600,10 @@
         <v>359.9999968193593</v>
       </c>
       <c r="F51" t="n">
-        <v>30.00002866146858</v>
+        <v>30.00002866146859</v>
       </c>
       <c r="G51" t="n">
-        <v>54.17342472228471</v>
+        <v>54.17342472228472</v>
       </c>
       <c r="H51" t="n">
         <v>5.964774490829528</v>
@@ -4645,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1.821657374759394e-12</v>
+        <v>1.821657375055251e-12</v>
       </c>
       <c r="V51" t="n">
-        <v>2.245840676670894e-05</v>
+        <v>2.24584067659984e-05</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002311800000001085</v>
+        <v>0.001662299999999561</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4682,13 +4682,13 @@
         <v>359.9999589538311</v>
       </c>
       <c r="F52" t="n">
-        <v>30.00043696769152</v>
+        <v>30.00043696769153</v>
       </c>
       <c r="G52" t="n">
-        <v>89.02549623685114</v>
+        <v>89.02549623685108</v>
       </c>
       <c r="H52" t="n">
-        <v>5.737226469727633</v>
+        <v>5.737226469727638</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>16.32342217043242</v>
       </c>
       <c r="P52" t="n">
-        <v>28.65628665080592</v>
+        <v>28.65628665080593</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -4727,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>3.202025035517551e-10</v>
+        <v>3.202025035616074e-10</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0002269370074609568</v>
+        <v>0.0002269370074651396</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002048999999999523</v>
+        <v>0.001422800000000279</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4767,10 +4767,10 @@
         <v>30.0000165282249</v>
       </c>
       <c r="G53" t="n">
-        <v>121.6310422338412</v>
+        <v>121.6310422338411</v>
       </c>
       <c r="H53" t="n">
-        <v>3.536537361574561</v>
+        <v>3.536537361574558</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>10.76637995500082</v>
       </c>
       <c r="P53" t="n">
-        <v>25.60877149957481</v>
+        <v>25.60877149957482</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -4809,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>2.226764659359782e-12</v>
+        <v>2.226764660026162e-12</v>
       </c>
       <c r="V53" t="n">
-        <v>2.631648745199935e-05</v>
+        <v>2.631648745670821e-05</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003488700000005451</v>
+        <v>0.001693199999998285</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4849,10 +4849,10 @@
         <v>29.99999845945429</v>
       </c>
       <c r="G54" t="n">
-        <v>148.1596797990772</v>
+        <v>148.1596797990773</v>
       </c>
       <c r="H54" t="n">
-        <v>3.313403947409857</v>
+        <v>3.313403947409858</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4891,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.983632611017289e-13</v>
+        <v>1.983632609398671e-13</v>
       </c>
       <c r="V54" t="n">
-        <v>1.483045909508794e-05</v>
+        <v>1.483045909357619e-05</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002167900000003442</v>
+        <v>0.001604700000001458</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4928,13 +4928,13 @@
         <v>359.9999954553253</v>
       </c>
       <c r="F55" t="n">
-        <v>30.00004836504084</v>
+        <v>30.00004836504083</v>
       </c>
       <c r="G55" t="n">
         <v>152.3991036546358</v>
       </c>
       <c r="H55" t="n">
-        <v>9.733990549218948</v>
+        <v>9.733990549218944</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4973,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>4.477056670483763e-12</v>
+        <v>4.477056671189937e-12</v>
       </c>
       <c r="V55" t="n">
-        <v>1.097901736578528e-05</v>
+        <v>1.097901736487282e-05</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002536000000006311</v>
+        <v>0.001779400000000209</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5010,13 +5010,13 @@
         <v>1.887617627237801e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>29.99997584897632</v>
+        <v>29.99997584897631</v>
       </c>
       <c r="G56" t="n">
-        <v>75.63300832987929</v>
+        <v>75.6330083298793</v>
       </c>
       <c r="H56" t="n">
-        <v>7.35885847967718</v>
+        <v>7.358858479677177</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>18.20214637988406</v>
       </c>
       <c r="P56" t="n">
-        <v>31.13264031046653</v>
+        <v>31.13264031046652</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -5055,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>7.195882162377957e-13</v>
+        <v>7.195882162690357e-13</v>
       </c>
       <c r="V56" t="n">
-        <v>9.847196944417579e-06</v>
+        <v>9.847196947095838e-06</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002401199999994219</v>
+        <v>0.002172200000000402</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5122,7 +5122,7 @@
         <v>8.034657799533981</v>
       </c>
       <c r="P57" t="n">
-        <v>44.66716466987293</v>
+        <v>44.66716466987294</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -5137,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>3.260942410014295e-11</v>
+        <v>3.260942409761584e-11</v>
       </c>
       <c r="V57" t="n">
-        <v>7.150327141349537e-05</v>
+        <v>7.150327141436635e-05</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001932999999993967</v>
+        <v>0.001416000000002526</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5180,7 +5180,7 @@
         <v>177.1542271337991</v>
       </c>
       <c r="H58" t="n">
-        <v>7.000652835746532</v>
+        <v>7.000652835746535</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>19.05908889727014</v>
       </c>
       <c r="O58" t="n">
-        <v>4.777934573775494</v>
+        <v>4.777934573775506</v>
       </c>
       <c r="P58" t="n">
         <v>19.0592926122263</v>
@@ -5219,10 +5219,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>4.936692124717267e-11</v>
+        <v>4.936692124673933e-11</v>
       </c>
       <c r="V58" t="n">
-        <v>0.0001326821979116625</v>
+        <v>0.0001326821979104003</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001877899999996657</v>
+        <v>0.001383899999996885</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5262,7 +5262,7 @@
         <v>15.72240822566437</v>
       </c>
       <c r="H59" t="n">
-        <v>5.766032510041057</v>
+        <v>5.766032510041054</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>5.111790511838069</v>
       </c>
       <c r="P59" t="n">
-        <v>34.17987074603985</v>
+        <v>34.17987074603984</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -5301,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>2.730175491192381e-11</v>
+        <v>2.730175491376931e-11</v>
       </c>
       <c r="V59" t="n">
-        <v>0.0001631633727799585</v>
+        <v>0.0001631633727784566</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002446500000004903</v>
+        <v>0.001380099999998663</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5338,13 +5338,13 @@
         <v>3.26895186316987e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>29.99995618218207</v>
+        <v>29.99995618218208</v>
       </c>
       <c r="G60" t="n">
-        <v>65.7190972771366</v>
+        <v>65.71909727713658</v>
       </c>
       <c r="H60" t="n">
-        <v>8.41443913143754</v>
+        <v>8.414439131437545</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5383,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2.155749022443625e-12</v>
+        <v>2.155749021907964e-12</v>
       </c>
       <c r="V60" t="n">
-        <v>1.654694022965301e-05</v>
+        <v>1.654694022700244e-05</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00241760000000113</v>
+        <v>0.00190239999999875</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>166.3262681231994</v>
       </c>
       <c r="H61" t="n">
-        <v>4.894435246715285</v>
+        <v>4.894435246715283</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1.112826079952175e-13</v>
+        <v>1.112826079987465e-13</v>
       </c>
       <c r="V61" t="n">
-        <v>8.285697440991854e-06</v>
+        <v>8.285697442624127e-06</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004466300000004253</v>
+        <v>0.001592299999998659</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>30.00002530311921</v>
       </c>
       <c r="G62" t="n">
-        <v>54.15696080581581</v>
+        <v>54.15696080581584</v>
       </c>
       <c r="H62" t="n">
-        <v>5.243383609257227</v>
+        <v>5.243383609257228</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>11.4115611428335</v>
       </c>
       <c r="P62" t="n">
-        <v>31.69464709345918</v>
+        <v>31.69464709345919</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -5547,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>1.91178612688292e-12</v>
+        <v>1.911786126992017e-12</v>
       </c>
       <c r="V62" t="n">
-        <v>2.659322890667699e-05</v>
+        <v>2.659322890657675e-05</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002174800000005916</v>
+        <v>0.001594000000000761</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5587,10 +5587,10 @@
         <v>30.0000196708298</v>
       </c>
       <c r="G63" t="n">
-        <v>148.4041194130985</v>
+        <v>148.4041194130984</v>
       </c>
       <c r="H63" t="n">
-        <v>5.176168827320054</v>
+        <v>5.176168827320052</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5611,10 +5611,10 @@
         <v>22.53166860081129</v>
       </c>
       <c r="O63" t="n">
-        <v>11.32528708192586</v>
+        <v>11.32528708192587</v>
       </c>
       <c r="P63" t="n">
-        <v>22.53174048367685</v>
+        <v>22.53174048367686</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -5629,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>3.887518870331295e-12</v>
+        <v>3.887518870574245e-12</v>
       </c>
       <c r="V63" t="n">
-        <v>2.942666864790445e-05</v>
+        <v>2.94266686575517e-05</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.004661200000001031</v>
+        <v>0.001788200000000018</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5666,7 +5666,7 @@
         <v>359.9999954628304</v>
       </c>
       <c r="F64" t="n">
-        <v>29.99994474914476</v>
+        <v>29.99994474914477</v>
       </c>
       <c r="G64" t="n">
         <v>6.075807358492965</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>3.458547683030058e-12</v>
+        <v>3.458547682558086e-12</v>
       </c>
       <c r="V64" t="n">
         <v>4.940941218853747e-05</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.004725199999995766</v>
+        <v>0.001433499999997423</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>7.294694601577837e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>29.99990181728687</v>
+        <v>29.99990181728686</v>
       </c>
       <c r="G65" t="n">
         <v>99.70966766384505</v>
       </c>
       <c r="H65" t="n">
-        <v>7.754929282132333</v>
+        <v>7.754929282132331</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5793,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>1.113822822658529e-11</v>
+        <v>1.113822822776429e-11</v>
       </c>
       <c r="V65" t="n">
-        <v>3.234419314550086e-05</v>
+        <v>3.234419314678568e-05</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002438200000000279</v>
+        <v>0.001992800000000017</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5833,10 +5833,10 @@
         <v>29.99976616744258</v>
       </c>
       <c r="G66" t="n">
-        <v>68.23805172776551</v>
+        <v>68.23805172776549</v>
       </c>
       <c r="H66" t="n">
-        <v>9.805014285768234</v>
+        <v>9.805014285768232</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5875,10 +5875,10 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>5.136671042991877e-11</v>
+        <v>5.136671043003018e-11</v>
       </c>
       <c r="V66" t="n">
-        <v>7.311784946720582e-05</v>
+        <v>7.31178494669482e-05</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.00448629999999639</v>
+        <v>0.002552800000000133</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5912,13 +5912,13 @@
         <v>359.9999993151089</v>
       </c>
       <c r="F67" t="n">
-        <v>29.99999953029862</v>
+        <v>29.99999953029863</v>
       </c>
       <c r="G67" t="n">
-        <v>39.35600828457395</v>
+        <v>39.35600828457398</v>
       </c>
       <c r="H67" t="n">
-        <v>3.376842832060854</v>
+        <v>3.376842832060851</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>7.088637517802654e-14</v>
+        <v>7.088637515213897e-14</v>
       </c>
       <c r="V67" t="n">
-        <v>1.09174741570746e-05</v>
+        <v>1.091747415419881e-05</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002233700000005001</v>
+        <v>0.001626400000002803</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5994,13 +5994,13 @@
         <v>359.9999994458591</v>
       </c>
       <c r="F68" t="n">
-        <v>29.99999944514256</v>
+        <v>29.99999944514257</v>
       </c>
       <c r="G68" t="n">
         <v>27.77172211939776</v>
       </c>
       <c r="H68" t="n">
-        <v>4.604404418232461</v>
+        <v>4.604404418232462</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6039,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>4.585681945218761e-14</v>
+        <v>4.585681943624231e-14</v>
       </c>
       <c r="V68" t="n">
-        <v>6.998876884137776e-06</v>
+        <v>6.998876884620021e-06</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003106299999998896</v>
+        <v>0.001629699999998735</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,7 +6076,7 @@
         <v>1.38274149143421e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>29.99997575148978</v>
+        <v>29.9999757514898</v>
       </c>
       <c r="G69" t="n">
         <v>98.25327363303062</v>
@@ -6106,7 +6106,7 @@
         <v>34.07554088842878</v>
       </c>
       <c r="P69" t="n">
-        <v>30.2927707150769</v>
+        <v>30.29277071507691</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6121,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>4.005686650752055e-13</v>
+        <v>4.005686644481929e-13</v>
       </c>
       <c r="V69" t="n">
-        <v>5.458145340463115e-06</v>
+        <v>5.458145339404697e-06</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.003085899999987873</v>
+        <v>0.002142899999999059</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6161,10 +6161,10 @@
         <v>30.00000170613956</v>
       </c>
       <c r="G70" t="n">
-        <v>46.68670853158012</v>
+        <v>46.68670853158013</v>
       </c>
       <c r="H70" t="n">
-        <v>3.520346173717732</v>
+        <v>3.520346173717734</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6203,10 +6203,10 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>1.782549553541484e-13</v>
+        <v>1.782549555198541e-13</v>
       </c>
       <c r="V70" t="n">
-        <v>1.489083563780054e-05</v>
+        <v>1.48908356383515e-05</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002165800000000218</v>
+        <v>0.001715600000000705</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>2.441412714330634e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>29.99960936474827</v>
+        <v>29.99960936474828</v>
       </c>
       <c r="G71" t="n">
-        <v>53.32507989197057</v>
+        <v>53.32507989197054</v>
       </c>
       <c r="H71" t="n">
-        <v>12.708485113232</v>
+        <v>12.70848511323201</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="N71" t="n">
         <v>38.87559435981993</v>
@@ -6270,7 +6270,7 @@
         <v>20.16585810584314</v>
       </c>
       <c r="P71" t="n">
-        <v>38.87486950141973</v>
+        <v>38.87486950141975</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>1.226417186091192e-10</v>
+        <v>1.226417186039722e-10</v>
       </c>
       <c r="V71" t="n">
-        <v>0.0001074725416330229</v>
+        <v>0.0001074725416235494</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.004299799999998299</v>
+        <v>0.001895399999998659</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6322,13 +6322,13 @@
         <v>359.9999792097308</v>
       </c>
       <c r="F72" t="n">
-        <v>30.00020345923075</v>
+        <v>30.00020345923076</v>
       </c>
       <c r="G72" t="n">
         <v>166.9461725702596</v>
       </c>
       <c r="H72" t="n">
-        <v>13.46914101632356</v>
+        <v>13.46914101632357</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>9.710525594188344e-11</v>
+        <v>9.710525594662117e-11</v>
       </c>
       <c r="V72" t="n">
-        <v>4.580260809415919e-05</v>
+        <v>4.580260809481861e-05</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002437599999993267</v>
+        <v>0.001837000000001865</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6404,13 +6404,13 @@
         <v>359.9999982633792</v>
       </c>
       <c r="F73" t="n">
-        <v>30.00001257925821</v>
+        <v>30.0000125792582</v>
       </c>
       <c r="G73" t="n">
-        <v>33.40349713735451</v>
+        <v>33.40349713735449</v>
       </c>
       <c r="H73" t="n">
-        <v>7.639216216885419</v>
+        <v>7.639216216885423</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>5.044284983204945e-13</v>
+        <v>5.044284982253372e-13</v>
       </c>
       <c r="V73" t="n">
-        <v>1.171371697578303e-05</v>
+        <v>1.171371697727849e-05</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002231300000005376</v>
+        <v>0.001713300000002249</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6486,13 +6486,13 @@
         <v>359.9999725585454</v>
       </c>
       <c r="F74" t="n">
-        <v>30.00015377921104</v>
+        <v>30.00015377921102</v>
       </c>
       <c r="G74" t="n">
         <v>19.21256823098392</v>
       </c>
       <c r="H74" t="n">
-        <v>11.2126318571571</v>
+        <v>11.21263185715709</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6516,7 +6516,7 @@
         <v>7.949483811229356</v>
       </c>
       <c r="P74" t="n">
-        <v>40.47853682909179</v>
+        <v>40.47853682909178</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -6531,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>1.189183744756702e-10</v>
+        <v>1.189183744682697e-10</v>
       </c>
       <c r="V74" t="n">
-        <v>0.00016116244205104</v>
+        <v>0.000161162442048767</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001965299999994841</v>
+        <v>0.001483600000000251</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6568,13 +6568,13 @@
         <v>1.60776177853773e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>29.99997687037546</v>
+        <v>29.99997687037547</v>
       </c>
       <c r="G75" t="n">
-        <v>115.6842296752108</v>
+        <v>115.6842296752107</v>
       </c>
       <c r="H75" t="n">
-        <v>9.463441062566847</v>
+        <v>9.463441062566849</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>26.91838671662827</v>
       </c>
       <c r="P75" t="n">
-        <v>25.19114527325154</v>
+        <v>25.19114527325155</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -6613,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>5.510906536277388e-13</v>
+        <v>5.510906531821658e-13</v>
       </c>
       <c r="V75" t="n">
-        <v>6.14215053588822e-06</v>
+        <v>6.14215053400326e-06</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002693600000000629</v>
+        <v>0.001989899999998102</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6653,10 +6653,10 @@
         <v>29.99998516695319</v>
       </c>
       <c r="G76" t="n">
-        <v>36.39642341120391</v>
+        <v>36.39642341120393</v>
       </c>
       <c r="H76" t="n">
-        <v>12.41455458816998</v>
+        <v>12.41455458816997</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6677,10 +6677,10 @@
         <v>40.62758235916512</v>
       </c>
       <c r="O76" t="n">
-        <v>14.26387967232674</v>
+        <v>14.26387967232675</v>
       </c>
       <c r="P76" t="n">
-        <v>40.62754856933772</v>
+        <v>40.62754856933771</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -6695,10 +6695,10 @@
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>2.384760612435667e-13</v>
+        <v>2.384760609372323e-13</v>
       </c>
       <c r="V76" t="n">
-        <v>5.274272908721421e-06</v>
+        <v>5.274272903691171e-06</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002484400000000164</v>
+        <v>0.002404500000000809</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6735,7 +6735,7 @@
         <v>30.00003569667903</v>
       </c>
       <c r="G77" t="n">
-        <v>102.4084370982269</v>
+        <v>102.4084370982268</v>
       </c>
       <c r="H77" t="n">
         <v>3.791580640375741</v>
@@ -6762,7 +6762,7 @@
         <v>12.002694435598</v>
       </c>
       <c r="P77" t="n">
-        <v>26.99619081537184</v>
+        <v>26.99619081537185</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>5.042582279245622e-12</v>
+        <v>5.042582279580046e-12</v>
       </c>
       <c r="V77" t="n">
-        <v>3.379775290088065e-05</v>
+        <v>3.379775290303321e-05</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003253499999999576</v>
+        <v>0.00172900000000098</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6814,10 +6814,10 @@
         <v>1.048123462895199e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>29.99998291388696</v>
+        <v>29.99998291388695</v>
       </c>
       <c r="G78" t="n">
-        <v>55.9493737300538</v>
+        <v>55.94937373005377</v>
       </c>
       <c r="H78" t="n">
         <v>12.82783270176189</v>
@@ -6859,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>2.272219316901064e-13</v>
+        <v>2.272219315640033e-13</v>
       </c>
       <c r="V78" t="n">
-        <v>4.567650512481076e-06</v>
+        <v>4.567650511424342e-06</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002809100000007447</v>
+        <v>0.00198350000000147</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6899,7 +6899,7 @@
         <v>30.00000713507007</v>
       </c>
       <c r="G79" t="n">
-        <v>165.4396033379208</v>
+        <v>165.4396033379207</v>
       </c>
       <c r="H79" t="n">
         <v>10.70634474304428</v>
@@ -6926,7 +6926,7 @@
         <v>16.40254093459218</v>
       </c>
       <c r="P79" t="n">
-        <v>15.58285513933927</v>
+        <v>15.58285513933929</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -6941,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>2.10445474646711e-13</v>
+        <v>2.104454751196158e-13</v>
       </c>
       <c r="V79" t="n">
-        <v>2.636113524780183e-06</v>
+        <v>2.636113529380357e-06</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002550200000001723</v>
+        <v>0.001973699999997081</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>9.143395598438381e-12</v>
+        <v>9.143395598622065e-12</v>
       </c>
       <c r="V80" t="n">
         <v>6.138013623517498e-05</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002162999999995918</v>
+        <v>0.001516900000002153</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,13 +7060,13 @@
         <v>1.819119902679271e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>29.99973921135994</v>
+        <v>29.99973921135995</v>
       </c>
       <c r="G81" t="n">
         <v>90.12080800891663</v>
       </c>
       <c r="H81" t="n">
-        <v>8.616666899962311</v>
+        <v>8.616666899962315</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7105,10 +7105,10 @@
         <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>6.933168441110667e-11</v>
+        <v>6.933168441051078e-11</v>
       </c>
       <c r="V81" t="n">
-        <v>8.159254508829538e-05</v>
+        <v>8.159254508686569e-05</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003785500000006436</v>
+        <v>0.001829200000003084</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7142,7 +7142,7 @@
         <v>9.450611010469645e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>29.99984498404005</v>
+        <v>29.99984498404004</v>
       </c>
       <c r="G82" t="n">
         <v>93.94498456306735</v>
@@ -7169,7 +7169,7 @@
         <v>30.30774104493361</v>
       </c>
       <c r="O82" t="n">
-        <v>29.25109274433631</v>
+        <v>29.2510927443363</v>
       </c>
       <c r="P82" t="n">
         <v>30.30752686351736</v>
@@ -7187,10 +7187,10 @@
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>1.886924532556216e-11</v>
+        <v>1.886924533160287e-11</v>
       </c>
       <c r="V82" t="n">
-        <v>3.853586512652703e-05</v>
+        <v>3.853586513558238e-05</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002888499999997407</v>
+        <v>0.001978999999998621</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7227,10 +7227,10 @@
         <v>29.99985571666673</v>
       </c>
       <c r="G83" t="n">
-        <v>63.97593861612182</v>
+        <v>63.97593861612186</v>
       </c>
       <c r="H83" t="n">
-        <v>7.090073034649324</v>
+        <v>7.090073034649318</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>15.81850795223532</v>
       </c>
       <c r="P83" t="n">
-        <v>32.34116464097947</v>
+        <v>32.34116464097946</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -7269,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>2.928051630911956e-11</v>
+        <v>2.928051630920711e-11</v>
       </c>
       <c r="V83" t="n">
-        <v>6.999017876697137e-05</v>
+        <v>6.999017876992711e-05</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002866300000007982</v>
+        <v>0.00173069999999953</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7306,13 +7306,13 @@
         <v>3.688028350831021e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>29.99994833444125</v>
+        <v>29.99994833444126</v>
       </c>
       <c r="G84" t="n">
-        <v>49.54067578894583</v>
+        <v>49.54067578894581</v>
       </c>
       <c r="H84" t="n">
-        <v>10.67072306715467</v>
+        <v>10.67072306715468</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>17.00129341753621</v>
       </c>
       <c r="P84" t="n">
-        <v>37.32389045841942</v>
+        <v>37.32389045841943</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>2.709328003124574e-12</v>
+        <v>2.709328003761617e-12</v>
       </c>
       <c r="V84" t="n">
-        <v>1.764221329433904e-05</v>
+        <v>1.764221329132923e-05</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.00255320000000836</v>
+        <v>0.001793899999999127</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,13 +7388,13 @@
         <v>3.298279185387802e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>29.99995371682722</v>
+        <v>29.99995371682721</v>
       </c>
       <c r="G85" t="n">
-        <v>46.26767981540715</v>
+        <v>46.26767981540713</v>
       </c>
       <c r="H85" t="n">
-        <v>11.20540774411679</v>
+        <v>11.20540774411678</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7418,7 +7418,7 @@
         <v>16.53125019620903</v>
       </c>
       <c r="P85" t="n">
-        <v>38.26052742269753</v>
+        <v>38.2605274226975</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -7433,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>2.155949365741557e-12</v>
+        <v>2.15594936661946e-12</v>
       </c>
       <c r="V85" t="n">
-        <v>1.562807688553161e-05</v>
+        <v>1.562807688724809e-05</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002533600000006686</v>
+        <v>0.001798199999999639</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7473,10 +7473,10 @@
         <v>29.99993362553952</v>
       </c>
       <c r="G86" t="n">
-        <v>8.287271676844025</v>
+        <v>8.287271676844037</v>
       </c>
       <c r="H86" t="n">
-        <v>7.443101320406857</v>
+        <v>7.443101320406846</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>6.985759226764771e-12</v>
+        <v>6.985759225947695e-12</v>
       </c>
       <c r="V86" t="n">
-        <v>7.621541197074981e-05</v>
+        <v>7.621541196613311e-05</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.00190029999998842</v>
+        <v>0.001579400000000675</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7552,13 +7552,13 @@
         <v>1.136450112620936e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>29.99998375394869</v>
+        <v>29.99998375394871</v>
       </c>
       <c r="G87" t="n">
         <v>111.6673202300015</v>
       </c>
       <c r="H87" t="n">
-        <v>9.107429621653864</v>
+        <v>9.107429621653875</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7579,10 +7579,10 @@
         <v>25.95106000866057</v>
       </c>
       <c r="O87" t="n">
-        <v>25.87965324526988</v>
+        <v>25.87965324526989</v>
       </c>
       <c r="P87" t="n">
-        <v>25.95103862306367</v>
+        <v>25.95103862306369</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -7597,10 +7597,10 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>2.747441200588112e-13</v>
+        <v>2.747441193082257e-13</v>
       </c>
       <c r="V87" t="n">
-        <v>4.478693822879046e-06</v>
+        <v>4.478693811935279e-06</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002777799999989838</v>
+        <v>0.002031800000001027</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>30.00000624558613</v>
       </c>
       <c r="G88" t="n">
-        <v>36.46916435477229</v>
+        <v>36.46916435477228</v>
       </c>
       <c r="H88" t="n">
-        <v>5.485137456883919</v>
+        <v>5.485137456883923</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>8.84140109981708</v>
       </c>
       <c r="P88" t="n">
-        <v>33.06981809155429</v>
+        <v>33.0698180915543</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -7679,10 +7679,10 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>3.355054026681444e-13</v>
+        <v>3.355054027576984e-13</v>
       </c>
       <c r="V88" t="n">
-        <v>1.329471856927068e-05</v>
+        <v>1.329471857124803e-05</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002179300000008766</v>
+        <v>0.001605100000002579</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>9.377407196440372e-12</v>
+        <v>9.377407198492061e-12</v>
       </c>
       <c r="V89" t="n">
-        <v>2.513849230657913e-05</v>
+        <v>2.513849230627199e-05</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.004091699999989373</v>
+        <v>0.002915800000000246</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7798,13 +7798,13 @@
         <v>2.816511335272394e-05</v>
       </c>
       <c r="F90" t="n">
-        <v>29.99960410188902</v>
+        <v>29.99960410188903</v>
       </c>
       <c r="G90" t="n">
         <v>116.5600436645351</v>
       </c>
       <c r="H90" t="n">
-        <v>9.085632376393836</v>
+        <v>9.085632376393839</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,10 +7825,10 @@
         <v>25.01898544775609</v>
       </c>
       <c r="O90" t="n">
-        <v>25.88600933510441</v>
+        <v>25.88600933510443</v>
       </c>
       <c r="P90" t="n">
-        <v>25.01847537691035</v>
+        <v>25.01847537691036</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>1.692903953624024e-10</v>
+        <v>1.692903953611061e-10</v>
       </c>
       <c r="V90" t="n">
-        <v>0.0001075680811822556</v>
+        <v>0.0001075680811810414</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002383899999998107</v>
+        <v>0.00187479999999951</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7880,13 +7880,13 @@
         <v>4.063639365493074e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>29.99995307391249</v>
+        <v>29.9999530739125</v>
       </c>
       <c r="G91" t="n">
         <v>89.94522577104226</v>
       </c>
       <c r="H91" t="n">
-        <v>6.071221876163166</v>
+        <v>6.071221876163168</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7907,10 +7907,10 @@
         <v>28.66617941202903</v>
       </c>
       <c r="O91" t="n">
-        <v>17.15632558336045</v>
+        <v>17.15632558336043</v>
       </c>
       <c r="P91" t="n">
-        <v>28.66609664071754</v>
+        <v>28.66609664071755</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -7925,10 +7925,10 @@
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>3.314695005401282e-12</v>
+        <v>3.314695004721667e-12</v>
       </c>
       <c r="V91" t="n">
-        <v>2.178654846940464e-05</v>
+        <v>2.178654847557205e-05</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003687600000006341</v>
+        <v>0.001601700000001927</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -7965,10 +7965,10 @@
         <v>29.99999977017968</v>
       </c>
       <c r="G92" t="n">
-        <v>27.54971502899737</v>
+        <v>27.5497150289974</v>
       </c>
       <c r="H92" t="n">
-        <v>4.892238311482285</v>
+        <v>4.892238311482277</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -8007,10 +8007,10 @@
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>5.385812602480229e-14</v>
+        <v>5.385812580659659e-14</v>
       </c>
       <c r="V92" t="n">
-        <v>7.07323749948081e-06</v>
+        <v>7.073237494324584e-06</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.00221220000000244</v>
+        <v>0.001601300000000805</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.9999980561535</v>
       </c>
       <c r="F93" t="n">
-        <v>30.00001359096553</v>
+        <v>30.00001359096554</v>
       </c>
       <c r="G93" t="n">
         <v>36.18057466412609</v>
       </c>
       <c r="H93" t="n">
-        <v>6.948271915219423</v>
+        <v>6.948271915219425</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>10.12608252120622</v>
       </c>
       <c r="P93" t="n">
-        <v>34.65348468258598</v>
+        <v>34.65348468258599</v>
       </c>
       <c r="Q93" t="n">
         <v>0</v>
@@ -8089,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>6.312453631473607e-13</v>
+        <v>6.312453628963766e-13</v>
       </c>
       <c r="V93" t="n">
-        <v>1.391418126485886e-05</v>
+        <v>1.391418126583973e-05</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002142100000000369</v>
+        <v>0.001728299999999905</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8126,13 +8126,13 @@
         <v>359.9999989132371</v>
       </c>
       <c r="F94" t="n">
-        <v>30.00001241936441</v>
+        <v>30.00001241936443</v>
       </c>
       <c r="G94" t="n">
         <v>159.4584697258362</v>
       </c>
       <c r="H94" t="n">
-        <v>12.46298169365264</v>
+        <v>12.46298169365265</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -8156,7 +8156,7 @@
         <v>25.62795723965118</v>
       </c>
       <c r="P94" t="n">
-        <v>14.83879292835229</v>
+        <v>14.8387929283523</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -8171,10 +8171,10 @@
         <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>2.609069559861623e-13</v>
+        <v>2.60906956228645e-13</v>
       </c>
       <c r="V94" t="n">
-        <v>2.727361773221315e-06</v>
+        <v>2.727361774489813e-06</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.00272329999999954</v>
+        <v>0.002036700000001446</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8208,7 +8208,7 @@
         <v>8.684910511013455e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>29.99986385083377</v>
+        <v>29.99986385083376</v>
       </c>
       <c r="G95" t="n">
         <v>109.143955850488</v>
@@ -8238,7 +8238,7 @@
         <v>30.33421319176564</v>
       </c>
       <c r="P95" t="n">
-        <v>26.76176157867976</v>
+        <v>26.76176157867975</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -8253,10 +8253,10 @@
         <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>1.597646307587914e-11</v>
+        <v>1.597646307670882e-11</v>
       </c>
       <c r="V95" t="n">
-        <v>3.371973302177886e-05</v>
+        <v>3.371973302262915e-05</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003116199999993796</v>
+        <v>0.001951199999997044</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>1.947841710020125e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>29.99997256587837</v>
+        <v>29.99997256587834</v>
       </c>
       <c r="G96" t="n">
         <v>129.489490426669</v>
       </c>
       <c r="H96" t="n">
-        <v>10.28664320391124</v>
+        <v>10.28664320391123</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>28.70555057970568</v>
       </c>
       <c r="P96" t="n">
-        <v>22.27070319741065</v>
+        <v>22.27070319741063</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -8335,10 +8335,10 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>8.125764757486825e-13</v>
+        <v>8.125764766774942e-13</v>
       </c>
       <c r="V96" t="n">
-        <v>6.712294931020883e-06</v>
+        <v>6.712294935638119e-06</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.00296740000000284</v>
+        <v>0.002229299999999768</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8375,10 +8375,10 @@
         <v>30.00000950647451</v>
       </c>
       <c r="G97" t="n">
-        <v>41.18450570774014</v>
+        <v>41.18450570774013</v>
       </c>
       <c r="H97" t="n">
-        <v>5.288279728437178</v>
+        <v>5.288279728437184</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>9.443664187757438</v>
       </c>
       <c r="P97" t="n">
-        <v>32.60138717943804</v>
+        <v>32.60138717943805</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>5.47837386544577e-13</v>
+        <v>5.478373865950217e-13</v>
       </c>
       <c r="V97" t="n">
-        <v>1.658930565042092e-05</v>
+        <v>1.6589305654014e-05</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002274400000004562</v>
+        <v>0.001687000000000438</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8454,10 +8454,10 @@
         <v>4.60777047967513e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>29.99993124475892</v>
+        <v>29.99993124475891</v>
       </c>
       <c r="G98" t="n">
-        <v>38.64367121256308</v>
+        <v>38.64367121256307</v>
       </c>
       <c r="H98" t="n">
         <v>13.91395698109513</v>
@@ -8499,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>4.206060788490661e-12</v>
+        <v>4.206060789417828e-12</v>
       </c>
       <c r="V98" t="n">
-        <v>2.062933961603555e-05</v>
+        <v>2.062933961624494e-05</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002569499999992786</v>
+        <v>0.001820800000000844</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002958100000000741</v>
+        <v>0.002827100000001082</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8618,13 +8618,13 @@
         <v>1.958263344489345e-05</v>
       </c>
       <c r="F100" t="n">
-        <v>29.99973460057717</v>
+        <v>29.99973460057718</v>
       </c>
       <c r="G100" t="n">
         <v>131.8086474458373</v>
       </c>
       <c r="H100" t="n">
-        <v>9.806174711067063</v>
+        <v>9.806174711067069</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,7 +8648,7 @@
         <v>26.96773220004325</v>
       </c>
       <c r="P100" t="n">
-        <v>21.92249448212042</v>
+        <v>21.92249448212044</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -8663,10 +8663,10 @@
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>8.253121193893374e-11</v>
+        <v>8.253121193819246e-11</v>
       </c>
       <c r="V100" t="n">
-        <v>6.592942675121447e-05</v>
+        <v>6.59294267487755e-05</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002653799999990269</v>
+        <v>0.001749400000001344</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8706,7 +8706,7 @@
         <v>121.0106576543648</v>
       </c>
       <c r="H101" t="n">
-        <v>8.856859769213449</v>
+        <v>8.85685976921345</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8745,10 +8745,10 @@
         <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>5.427910570893073e-11</v>
+        <v>5.427910570819684e-11</v>
       </c>
       <c r="V101" t="n">
-        <v>5.899362623876002e-05</v>
+        <v>5.899362623801394e-05</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002428800000004117</v>
+        <v>0.001873500000002082</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
